--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Amr Sayed Kamal Mahmoud Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -90,7 +90,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -652,7 +652,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Hatem Sobhy Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230183</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -863,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6660287037</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4149064005</x:v>
+        <x:v>45907.6660287037</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.4149064005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4156207986</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45907.4156207986</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4149546644</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.4149546644</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4160342245</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4160342245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.7521790162</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Nataly Tamer Mohamed Samir Abdou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور هانى محمد جمال محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Hany</x:t>
   </x:si>
   <x:si>
     <x:t>1230281</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45926.3557763889</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4160342245</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4160342245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.7521790162</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
   </x:si>
   <x:si>
+    <x:t>1220192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد أحمد سامي محمد علي الهواري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Samy El Hawary</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220081</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Mohamed Assem Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالرحيم سالم عبدالهادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230109</x:t>
   </x:si>
   <x:si>
@@ -157,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed maged nabil abd el salam hassanin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم عبدالنبى السيد عبدالجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Abdelnaby Elsayed Abdelgawad</x:t>
   </x:si>
   <x:si>
     <x:t>1230261</x:t>
@@ -362,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45927.4940254977</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149546644</x:v>
+        <x:v>45927.4934474537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45927.4924334838</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4149546644</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45926.3557763889</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4160342245</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45926.3557763889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.7521790162</x:v>
+        <x:v>45907.4160342245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1533,102 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4148150463</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES200_Lecture-35422.xlsx
+++ b/downloaded_files/EPES200_Lecture-35422.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>4240056</x:t>
